--- a/Data/지역별 신재생 에너지 발전량.xlsx
+++ b/Data/지역별 신재생 에너지 발전량.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\대학수업\4-2\소셜인텔리젼스\TansoZero-Data\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C442994-4708-4375-8AEF-AA0B210851C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A4176E1-6F60-48EE-AC5E-92DCD3D63D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1750" yWindow="1230" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="32">
   <si>
     <t>연도</t>
   </si>
@@ -37,556 +37,86 @@
     <t>신에너지 합계</t>
   </si>
   <si>
+    <t>태양광</t>
+  </si>
+  <si>
+    <t>풍력</t>
+  </si>
+  <si>
+    <t>수력</t>
+  </si>
+  <si>
+    <t>해양</t>
+  </si>
+  <si>
+    <t>바이오</t>
+  </si>
+  <si>
+    <t>재생폐기물</t>
+  </si>
+  <si>
+    <t>연료전지</t>
+  </si>
+  <si>
+    <t>IGCC</t>
+  </si>
+  <si>
+    <t>서울</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>부산</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>인천</t>
+  </si>
+  <si>
+    <t>광주</t>
+  </si>
+  <si>
+    <t>대전</t>
+  </si>
+  <si>
+    <t>울산</t>
+  </si>
+  <si>
+    <t>세종</t>
+  </si>
+  <si>
+    <t>경기</t>
+  </si>
+  <si>
+    <t>강원</t>
+  </si>
+  <si>
+    <t>충북</t>
+  </si>
+  <si>
+    <t>충남</t>
+  </si>
+  <si>
+    <t>전북</t>
+  </si>
+  <si>
+    <t>전남</t>
+  </si>
+  <si>
+    <t>경북</t>
+  </si>
+  <si>
+    <t>경남</t>
+  </si>
+  <si>
+    <t>제주</t>
+  </si>
+  <si>
     <t>신재생에너지공급비중</t>
-  </si>
-  <si>
-    <t>태양광</t>
-  </si>
-  <si>
-    <t>풍력</t>
-  </si>
-  <si>
-    <t>수력</t>
-  </si>
-  <si>
-    <t>해양</t>
-  </si>
-  <si>
-    <t>바이오</t>
-  </si>
-  <si>
-    <t>재생폐기물</t>
-  </si>
-  <si>
-    <t>연료전지</t>
-  </si>
-  <si>
-    <t>IGCC</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>서울</t>
-  </si>
-  <si>
-    <t>755,498</t>
-  </si>
-  <si>
-    <t>361,266</t>
-  </si>
-  <si>
-    <t>394,232</t>
-  </si>
-  <si>
-    <t>1.25</t>
-  </si>
-  <si>
-    <t>272,765</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>334</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>27,069</t>
-  </si>
-  <si>
-    <t>60,915</t>
-  </si>
-  <si>
-    <t>부산</t>
-  </si>
-  <si>
-    <t>738,393</t>
-  </si>
-  <si>
-    <t>421,541</t>
-  </si>
-  <si>
-    <t>316,852</t>
-  </si>
-  <si>
-    <t>1.22</t>
-  </si>
-  <si>
-    <t>366,024</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>16,435</t>
-  </si>
-  <si>
-    <t>38,893</t>
-  </si>
-  <si>
-    <t>대구</t>
-  </si>
-  <si>
-    <t>560,890</t>
-  </si>
-  <si>
-    <t>544,440</t>
-  </si>
-  <si>
-    <t>16,450</t>
-  </si>
-  <si>
-    <t>0.93</t>
-  </si>
-  <si>
-    <t>497,336</t>
-  </si>
-  <si>
-    <t>16,525</t>
-  </si>
-  <si>
-    <t>14,033</t>
-  </si>
-  <si>
-    <t>10,691</t>
-  </si>
-  <si>
-    <t>5,854</t>
-  </si>
-  <si>
-    <t>인천</t>
-  </si>
-  <si>
-    <t>1,966,319</t>
-  </si>
-  <si>
-    <t>574,288</t>
-  </si>
-  <si>
-    <t>1,392,031</t>
-  </si>
-  <si>
-    <t>3.26</t>
-  </si>
-  <si>
-    <t>267,782</t>
-  </si>
-  <si>
-    <t>24,693</t>
-  </si>
-  <si>
-    <t>13,477</t>
-  </si>
-  <si>
-    <t>258,055</t>
-  </si>
-  <si>
-    <t>10,281</t>
-  </si>
-  <si>
-    <t>광주</t>
-  </si>
-  <si>
-    <t>598,721</t>
-  </si>
-  <si>
-    <t>418,128</t>
-  </si>
-  <si>
-    <t>180,593</t>
-  </si>
-  <si>
-    <t>0.99</t>
-  </si>
-  <si>
-    <t>404,724</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>5,028</t>
-  </si>
-  <si>
-    <t>2,001</t>
-  </si>
-  <si>
-    <t>6,367</t>
-  </si>
-  <si>
-    <t>대전</t>
-  </si>
-  <si>
-    <t>225,941</t>
-  </si>
-  <si>
-    <t>142,121</t>
-  </si>
-  <si>
-    <t>83,819</t>
-  </si>
-  <si>
-    <t>0.37</t>
-  </si>
-  <si>
-    <t>138,597</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>2,842</t>
-  </si>
-  <si>
-    <t>울산</t>
-  </si>
-  <si>
-    <t>692,284</t>
-  </si>
-  <si>
-    <t>419,542</t>
-  </si>
-  <si>
-    <t>272,742</t>
-  </si>
-  <si>
-    <t>1.15</t>
-  </si>
-  <si>
-    <t>182,853</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1,037</t>
-  </si>
-  <si>
-    <t>231,332</t>
-  </si>
-  <si>
-    <t>4,303</t>
-  </si>
-  <si>
-    <t>세종</t>
-  </si>
-  <si>
-    <t>171,556</t>
-  </si>
-  <si>
-    <t>133,029</t>
-  </si>
-  <si>
-    <t>38,527</t>
-  </si>
-  <si>
-    <t>0.28</t>
-  </si>
-  <si>
-    <t>123,817</t>
-  </si>
-  <si>
-    <t>6,134</t>
-  </si>
-  <si>
-    <t>3,078</t>
-  </si>
-  <si>
-    <t>경기</t>
-  </si>
-  <si>
-    <t>5,672,313</t>
-  </si>
-  <si>
-    <t>4,046,029</t>
-  </si>
-  <si>
-    <t>1,626,284</t>
-  </si>
-  <si>
-    <t>9.39</t>
-  </si>
-  <si>
-    <t>2,346,126</t>
-  </si>
-  <si>
-    <t>3,409</t>
-  </si>
-  <si>
-    <t>743,505</t>
-  </si>
-  <si>
-    <t>437,534</t>
-  </si>
-  <si>
-    <t>434,457</t>
-  </si>
-  <si>
-    <t>80,998</t>
-  </si>
-  <si>
-    <t>강원</t>
-  </si>
-  <si>
-    <t>6,510,882</t>
-  </si>
-  <si>
-    <t>6,059,528</t>
-  </si>
-  <si>
-    <t>451,355</t>
-  </si>
-  <si>
-    <t>10.78</t>
-  </si>
-  <si>
-    <t>2,315,785</t>
-  </si>
-  <si>
-    <t>960,841</t>
-  </si>
-  <si>
-    <t>946,355</t>
-  </si>
-  <si>
-    <t>1,816,738</t>
-  </si>
-  <si>
-    <t>19,808</t>
-  </si>
-  <si>
-    <t>충북</t>
-  </si>
-  <si>
-    <t>3,261,546</t>
-  </si>
-  <si>
-    <t>2,921,617</t>
-  </si>
-  <si>
-    <t>339,929</t>
-  </si>
-  <si>
-    <t>5.4</t>
-  </si>
-  <si>
-    <t>1,882,953</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>1,002,139</t>
-  </si>
-  <si>
-    <t>7,753</t>
-  </si>
-  <si>
-    <t>28,706</t>
-  </si>
-  <si>
-    <t>충남</t>
-  </si>
-  <si>
-    <t>8,600,653</t>
-  </si>
-  <si>
-    <t>7,082,180</t>
-  </si>
-  <si>
-    <t>1,518,473</t>
-  </si>
-  <si>
-    <t>14.24</t>
-  </si>
-  <si>
-    <t>3,991,277</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>54,553</t>
-  </si>
-  <si>
-    <t>3,019,373</t>
-  </si>
-  <si>
-    <t>16,241</t>
-  </si>
-  <si>
-    <t>521,956</t>
-  </si>
-  <si>
-    <t>996,517</t>
-  </si>
-  <si>
-    <t>전북</t>
-  </si>
-  <si>
-    <t>10,205,081</t>
-  </si>
-  <si>
-    <t>10,070,791</t>
-  </si>
-  <si>
-    <t>134,290</t>
-  </si>
-  <si>
-    <t>16.9</t>
-  </si>
-  <si>
-    <t>5,764,753</t>
-  </si>
-  <si>
-    <t>143,664</t>
-  </si>
-  <si>
-    <t>252,879</t>
-  </si>
-  <si>
-    <t>3,891,039</t>
-  </si>
-  <si>
-    <t>18,456</t>
-  </si>
-  <si>
-    <t>전남</t>
-  </si>
-  <si>
-    <t>8,247,703</t>
-  </si>
-  <si>
-    <t>7,921,805</t>
-  </si>
-  <si>
-    <t>325,898</t>
-  </si>
-  <si>
-    <t>13.66</t>
-  </si>
-  <si>
-    <t>7,086,350</t>
-  </si>
-  <si>
-    <t>643,958</t>
-  </si>
-  <si>
-    <t>79,929</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>47,158</t>
-  </si>
-  <si>
-    <t>64,382</t>
-  </si>
-  <si>
-    <t>경북</t>
-  </si>
-  <si>
-    <t>5,804,541</t>
-  </si>
-  <si>
-    <t>5,682,615</t>
-  </si>
-  <si>
-    <t>121,926</t>
-  </si>
-  <si>
-    <t>9.61</t>
-  </si>
-  <si>
-    <t>4,385,932</t>
-  </si>
-  <si>
-    <t>933,978</t>
-  </si>
-  <si>
-    <t>303,783</t>
-  </si>
-  <si>
-    <t>25,571</t>
-  </si>
-  <si>
-    <t>33,351</t>
-  </si>
-  <si>
-    <t>경남</t>
-  </si>
-  <si>
-    <t>3,381,157</t>
-  </si>
-  <si>
-    <t>3,341,092</t>
-  </si>
-  <si>
-    <t>40,065</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>2,446,555</t>
-  </si>
-  <si>
-    <t>147,145</t>
-  </si>
-  <si>
-    <t>297,744</t>
-  </si>
-  <si>
-    <t>432,699</t>
-  </si>
-  <si>
-    <t>16,949</t>
-  </si>
-  <si>
-    <t>제주</t>
-  </si>
-  <si>
-    <t>3,006,387</t>
-  </si>
-  <si>
-    <t>3,005,989</t>
-  </si>
-  <si>
-    <t>399</t>
-  </si>
-  <si>
-    <t>4.98</t>
-  </si>
-  <si>
-    <t>762,818</t>
-  </si>
-  <si>
-    <t>516,527</t>
-  </si>
-  <si>
-    <t>2,876</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1,691,418</t>
-  </si>
-  <si>
-    <t>32,345</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -651,7 +181,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,6 +193,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="J57" sqref="J57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N1" sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1018,779 +551,779 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="4">
+        <v>755498</v>
+      </c>
+      <c r="D2" s="4">
+        <v>361266</v>
+      </c>
+      <c r="E2" s="4">
+        <v>394232</v>
+      </c>
+      <c r="F2" s="2">
+        <v>1.25</v>
+      </c>
+      <c r="G2" s="4">
+        <v>272765</v>
+      </c>
+      <c r="H2" s="2">
+        <v>184</v>
+      </c>
+      <c r="I2" s="2">
+        <v>334</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4">
+        <v>27069</v>
+      </c>
+      <c r="L2" s="4">
+        <v>60915</v>
+      </c>
+      <c r="M2" s="4">
+        <v>394232</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="4">
+        <v>738393</v>
+      </c>
+      <c r="D3" s="4">
+        <v>421541</v>
+      </c>
+      <c r="E3" s="4">
+        <v>316852</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1.22</v>
+      </c>
+      <c r="G3" s="4">
+        <v>366024</v>
+      </c>
+      <c r="H3" s="2">
+        <v>63</v>
+      </c>
+      <c r="I3" s="2">
+        <v>127</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4">
+        <v>16435</v>
+      </c>
+      <c r="L3" s="4">
+        <v>38893</v>
+      </c>
+      <c r="M3" s="4">
+        <v>316852</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" s="4">
+        <v>560890</v>
+      </c>
+      <c r="D4" s="4">
+        <v>544440</v>
+      </c>
+      <c r="E4" s="4">
+        <v>16450</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.93</v>
+      </c>
+      <c r="G4" s="4">
+        <v>497336</v>
+      </c>
+      <c r="H4" s="4">
+        <v>16525</v>
+      </c>
+      <c r="I4" s="4">
+        <v>14033</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4">
+        <v>10691</v>
+      </c>
+      <c r="L4" s="4">
+        <v>5854</v>
+      </c>
+      <c r="M4" s="4">
+        <v>16450</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="C5" s="4">
+        <v>1966319</v>
+      </c>
+      <c r="D5" s="4">
+        <v>574288</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1392031</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3.26</v>
+      </c>
+      <c r="G5" s="4">
+        <v>267782</v>
+      </c>
+      <c r="H5" s="4">
+        <v>24693</v>
+      </c>
+      <c r="I5" s="4">
+        <v>13477</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4">
+        <v>258055</v>
+      </c>
+      <c r="L5" s="4">
+        <v>10281</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1392031</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C6" s="4">
+        <v>598721</v>
+      </c>
+      <c r="D6" s="4">
+        <v>418128</v>
+      </c>
+      <c r="E6" s="4">
+        <v>180593</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="G6" s="4">
+        <v>404724</v>
+      </c>
+      <c r="H6" s="2">
+        <v>7</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5028</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2001</v>
+      </c>
+      <c r="L6" s="4">
+        <v>6367</v>
+      </c>
+      <c r="M6" s="4">
+        <v>180593</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="C7" s="4">
+        <v>225941</v>
+      </c>
+      <c r="D7" s="4">
+        <v>142121</v>
+      </c>
+      <c r="E7" s="4">
+        <v>83819</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.37</v>
+      </c>
+      <c r="G7" s="4">
+        <v>138597</v>
+      </c>
+      <c r="H7" s="2">
+        <v>351</v>
+      </c>
+      <c r="I7" s="2">
+        <v>217</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="2">
+        <v>115</v>
+      </c>
+      <c r="L7" s="4">
+        <v>2842</v>
+      </c>
+      <c r="M7" s="4">
+        <v>83819</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="C8" s="4">
+        <v>692284</v>
+      </c>
+      <c r="D8" s="4">
+        <v>419542</v>
+      </c>
+      <c r="E8" s="4">
+        <v>272742</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G8" s="4">
+        <v>182853</v>
+      </c>
+      <c r="H8" s="2">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1037</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4">
+        <v>231332</v>
+      </c>
+      <c r="L8" s="4">
+        <v>4303</v>
+      </c>
+      <c r="M8" s="4">
+        <v>272742</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C9" s="4">
+        <v>171556</v>
+      </c>
+      <c r="D9" s="4">
+        <v>133029</v>
+      </c>
+      <c r="E9" s="4">
+        <v>38527</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G9" s="4">
+        <v>123817</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="4">
+        <v>6134</v>
+      </c>
+      <c r="L9" s="4">
+        <v>3078</v>
+      </c>
+      <c r="M9" s="4">
+        <v>38527</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="C10" s="4">
+        <v>5672313</v>
+      </c>
+      <c r="D10" s="4">
+        <v>4046029</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1626284</v>
+      </c>
+      <c r="F10" s="2">
+        <v>9.39</v>
+      </c>
+      <c r="G10" s="4">
+        <v>2346126</v>
+      </c>
+      <c r="H10" s="4">
+        <v>3409</v>
+      </c>
+      <c r="I10" s="4">
+        <v>743505</v>
+      </c>
+      <c r="J10" s="4">
+        <v>437534</v>
+      </c>
+      <c r="K10" s="4">
+        <v>434457</v>
+      </c>
+      <c r="L10" s="4">
+        <v>80998</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1626284</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A11" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="C11" s="4">
+        <v>6510882</v>
+      </c>
+      <c r="D11" s="4">
+        <v>6059528</v>
+      </c>
+      <c r="E11" s="4">
+        <v>451355</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10.78</v>
+      </c>
+      <c r="G11" s="4">
+        <v>2315785</v>
+      </c>
+      <c r="H11" s="4">
+        <v>960841</v>
+      </c>
+      <c r="I11" s="4">
+        <v>946355</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4">
+        <v>1816738</v>
+      </c>
+      <c r="L11" s="4">
+        <v>19808</v>
+      </c>
+      <c r="M11" s="4">
+        <v>451355</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A12" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="C12" s="4">
+        <v>3261546</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2921617</v>
+      </c>
+      <c r="E12" s="4">
+        <v>339929</v>
+      </c>
+      <c r="F12" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1882953</v>
+      </c>
+      <c r="H12" s="2">
+        <v>67</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1002139</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4">
+        <v>7753</v>
+      </c>
+      <c r="L12" s="4">
+        <v>28706</v>
+      </c>
+      <c r="M12" s="4">
+        <v>339929</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A13" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C13" s="4">
+        <v>8600653</v>
+      </c>
+      <c r="D13" s="4">
+        <v>7082180</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1518473</v>
+      </c>
+      <c r="F13" s="2">
+        <v>14.24</v>
+      </c>
+      <c r="G13" s="4">
+        <v>3991277</v>
+      </c>
+      <c r="H13" s="2">
+        <v>736</v>
+      </c>
+      <c r="I13" s="4">
+        <v>54553</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3019373</v>
+      </c>
+      <c r="L13" s="4">
+        <v>16241</v>
+      </c>
+      <c r="M13" s="4">
+        <v>521956</v>
+      </c>
+      <c r="N13" s="4">
+        <v>996517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A14" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C14" s="4">
+        <v>10205081</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10070791</v>
+      </c>
+      <c r="E14" s="4">
+        <v>134290</v>
+      </c>
+      <c r="F14" s="2">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="G14" s="4">
+        <v>5764753</v>
+      </c>
+      <c r="H14" s="4">
+        <v>143664</v>
+      </c>
+      <c r="I14" s="4">
+        <v>252879</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4">
+        <v>3891039</v>
+      </c>
+      <c r="L14" s="4">
+        <v>18456</v>
+      </c>
+      <c r="M14" s="4">
+        <v>134290</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A15" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C15" s="4">
+        <v>8247703</v>
+      </c>
+      <c r="D15" s="4">
+        <v>7921805</v>
+      </c>
+      <c r="E15" s="4">
+        <v>325898</v>
+      </c>
+      <c r="F15" s="2">
+        <v>13.66</v>
+      </c>
+      <c r="G15" s="4">
+        <v>7086350</v>
+      </c>
+      <c r="H15" s="4">
+        <v>643958</v>
+      </c>
+      <c r="I15" s="4">
+        <v>79929</v>
+      </c>
+      <c r="J15" s="2">
         <v>28</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="K15" s="4">
+        <v>47158</v>
+      </c>
+      <c r="L15" s="4">
+        <v>64382</v>
+      </c>
+      <c r="M15" s="4">
+        <v>325898</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A16" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="4">
+        <v>5804541</v>
+      </c>
+      <c r="D16" s="4">
+        <v>5682615</v>
+      </c>
+      <c r="E16" s="4">
+        <v>121926</v>
+      </c>
+      <c r="F16" s="2">
+        <v>9.61</v>
+      </c>
+      <c r="G16" s="4">
+        <v>4385932</v>
+      </c>
+      <c r="H16" s="4">
+        <v>933978</v>
+      </c>
+      <c r="I16" s="4">
+        <v>303783</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K16" s="4">
+        <v>25571</v>
+      </c>
+      <c r="L16" s="4">
+        <v>33351</v>
+      </c>
+      <c r="M16" s="4">
+        <v>121926</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A17" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="C17" s="4">
+        <v>3381157</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3341092</v>
+      </c>
+      <c r="E17" s="4">
+        <v>40065</v>
+      </c>
+      <c r="F17" s="2">
+        <v>5.6</v>
+      </c>
+      <c r="G17" s="4">
+        <v>2446555</v>
+      </c>
+      <c r="H17" s="4">
+        <v>147145</v>
+      </c>
+      <c r="I17" s="4">
+        <v>297744</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K17" s="4">
+        <v>432699</v>
+      </c>
+      <c r="L17" s="4">
+        <v>16949</v>
+      </c>
+      <c r="M17" s="4">
+        <v>40065</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A18" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
-      <c r="A18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>181</v>
+      <c r="C18" s="4">
+        <v>3006387</v>
+      </c>
+      <c r="D18" s="4">
+        <v>3005989</v>
+      </c>
+      <c r="E18" s="2">
+        <v>399</v>
+      </c>
+      <c r="F18" s="2">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="G18" s="4">
+        <v>762818</v>
+      </c>
+      <c r="H18" s="4">
+        <v>516527</v>
+      </c>
+      <c r="I18" s="4">
+        <v>2876</v>
+      </c>
+      <c r="J18" s="2">
+        <v>4</v>
+      </c>
+      <c r="K18" s="4">
+        <v>1691418</v>
+      </c>
+      <c r="L18" s="4">
+        <v>32345</v>
+      </c>
+      <c r="M18" s="2">
+        <v>399</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.45">
@@ -1798,7 +1331,7 @@
         <v>2022</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="3">
         <v>723176</v>
@@ -1822,7 +1355,7 @@
         <v>379</v>
       </c>
       <c r="J19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K19" s="3">
         <v>27783</v>
@@ -1834,7 +1367,7 @@
         <v>334996</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.45">
@@ -1842,7 +1375,7 @@
         <v>2022</v>
       </c>
       <c r="B20" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <v>693590</v>
@@ -1866,7 +1399,7 @@
         <v>244</v>
       </c>
       <c r="J20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K20" s="3">
         <v>12534</v>
@@ -1878,7 +1411,7 @@
         <v>327973</v>
       </c>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.45">
@@ -1886,7 +1419,7 @@
         <v>2022</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C21" s="3">
         <v>293356</v>
@@ -1910,7 +1443,7 @@
         <v>14966</v>
       </c>
       <c r="J21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K21" s="3">
         <v>6072</v>
@@ -1922,7 +1455,7 @@
         <v>14947</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.45">
@@ -1930,7 +1463,7 @@
         <v>2022</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3">
         <v>1911643</v>
@@ -1954,7 +1487,7 @@
         <v>30288</v>
       </c>
       <c r="J22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K22" s="3">
         <v>228231</v>
@@ -1966,7 +1499,7 @@
         <v>1347243</v>
       </c>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.45">
@@ -1974,7 +1507,7 @@
         <v>2022</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C23" s="3">
         <v>471271</v>
@@ -1998,7 +1531,7 @@
         <v>6269</v>
       </c>
       <c r="J23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K23" s="3">
         <v>3051</v>
@@ -2010,7 +1543,7 @@
         <v>64940</v>
       </c>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.45">
@@ -2018,7 +1551,7 @@
         <v>2022</v>
       </c>
       <c r="B24" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3">
         <v>224281</v>
@@ -2042,10 +1575,10 @@
         <v>122</v>
       </c>
       <c r="J24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L24" s="3">
         <v>3878</v>
@@ -2054,7 +1587,7 @@
         <v>84631</v>
       </c>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.45">
@@ -2062,7 +1595,7 @@
         <v>2022</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C25" s="3">
         <v>689744</v>
@@ -2086,7 +1619,7 @@
         <v>437</v>
       </c>
       <c r="J25" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K25" s="3">
         <v>290267</v>
@@ -2098,7 +1631,7 @@
         <v>216800</v>
       </c>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.45">
@@ -2106,7 +1639,7 @@
         <v>2022</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C26" s="3">
         <v>169375</v>
@@ -2124,13 +1657,13 @@
         <v>112270</v>
       </c>
       <c r="H26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K26" s="3">
         <v>12460</v>
@@ -2142,7 +1675,7 @@
         <v>40394</v>
       </c>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.45">
@@ -2150,7 +1683,7 @@
         <v>2022</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C27" s="3">
         <v>5269025</v>
@@ -2186,7 +1719,7 @@
         <v>1545077</v>
       </c>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.45">
@@ -2194,7 +1727,7 @@
         <v>2022</v>
       </c>
       <c r="B28" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C28" s="3">
         <v>6479493</v>
@@ -2218,7 +1751,7 @@
         <v>1169315</v>
       </c>
       <c r="J28" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K28" s="3">
         <v>1883771</v>
@@ -2230,7 +1763,7 @@
         <v>276081</v>
       </c>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.45">
@@ -2238,7 +1771,7 @@
         <v>2022</v>
       </c>
       <c r="B29" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C29" s="3">
         <v>2785854</v>
@@ -2262,7 +1795,7 @@
         <v>824421</v>
       </c>
       <c r="J29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K29" s="3">
         <v>8211</v>
@@ -2274,7 +1807,7 @@
         <v>206224</v>
       </c>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.45">
@@ -2282,7 +1815,7 @@
         <v>2022</v>
       </c>
       <c r="B30" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C30" s="3">
         <v>9023827</v>
@@ -2306,7 +1839,7 @@
         <v>52379</v>
       </c>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K30" s="3">
         <v>2810616</v>
@@ -2326,7 +1859,7 @@
         <v>2022</v>
       </c>
       <c r="B31" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="C31" s="3">
         <v>10385213</v>
@@ -2350,7 +1883,7 @@
         <v>212888</v>
       </c>
       <c r="J31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K31" s="3">
         <v>4347686</v>
@@ -2362,7 +1895,7 @@
         <v>111198</v>
       </c>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.45">
@@ -2370,7 +1903,7 @@
         <v>2022</v>
       </c>
       <c r="B32" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="C32" s="3">
         <v>7481402</v>
@@ -2406,7 +1939,7 @@
         <v>292191</v>
       </c>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.45">
@@ -2414,7 +1947,7 @@
         <v>2022</v>
       </c>
       <c r="B33" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="C33" s="3">
         <v>5315057</v>
@@ -2438,7 +1971,7 @@
         <v>238520</v>
       </c>
       <c r="J33" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K33" s="3">
         <v>19547</v>
@@ -2450,7 +1983,7 @@
         <v>29233</v>
       </c>
       <c r="N33" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.45">
@@ -2458,7 +1991,7 @@
         <v>2022</v>
       </c>
       <c r="B34" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="C34" s="3">
         <v>2867620</v>
@@ -2482,7 +2015,7 @@
         <v>218238</v>
       </c>
       <c r="J34" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K34" s="3">
         <v>191845</v>
@@ -2494,7 +2027,7 @@
         <v>28593</v>
       </c>
       <c r="N34" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.45">
@@ -2502,7 +2035,7 @@
         <v>2022</v>
       </c>
       <c r="B35" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="C35" s="3">
         <v>2996072</v>
@@ -2538,7 +2071,7 @@
         <v>383</v>
       </c>
       <c r="N35" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.45">
@@ -2546,7 +2079,7 @@
         <v>2021</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C36" s="3">
         <v>782277</v>
@@ -2570,7 +2103,7 @@
         <v>618</v>
       </c>
       <c r="J36" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K36" s="3">
         <v>28706</v>
@@ -2582,7 +2115,7 @@
         <v>438474</v>
       </c>
       <c r="N36" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.45">
@@ -2590,7 +2123,7 @@
         <v>2021</v>
       </c>
       <c r="B37" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C37" s="3">
         <v>616236</v>
@@ -2614,7 +2147,7 @@
         <v>41</v>
       </c>
       <c r="J37" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K37" s="3">
         <v>14294</v>
@@ -2626,7 +2159,7 @@
         <v>293478</v>
       </c>
       <c r="N37" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.45">
@@ -2634,7 +2167,7 @@
         <v>2021</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C38" s="3">
         <v>251812</v>
@@ -2658,7 +2191,7 @@
         <v>14518</v>
       </c>
       <c r="J38" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K38" s="3">
         <v>14158</v>
@@ -2670,7 +2203,7 @@
         <v>14701</v>
       </c>
       <c r="N38" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.45">
@@ -2678,7 +2211,7 @@
         <v>2021</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C39" s="3">
         <v>2020296</v>
@@ -2702,7 +2235,7 @@
         <v>41096</v>
       </c>
       <c r="J39" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K39" s="3">
         <v>210856</v>
@@ -2714,7 +2247,7 @@
         <v>1497473</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.45">
@@ -2722,7 +2255,7 @@
         <v>2021</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="C40" s="3">
         <v>345741</v>
@@ -2746,7 +2279,7 @@
         <v>8230</v>
       </c>
       <c r="J40" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K40" s="3">
         <v>3107</v>
@@ -2758,7 +2291,7 @@
         <v>4557</v>
       </c>
       <c r="N40" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.45">
@@ -2766,7 +2299,7 @@
         <v>2021</v>
       </c>
       <c r="B41" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="C41" s="3">
         <v>148871</v>
@@ -2790,10 +2323,10 @@
         <v>257</v>
       </c>
       <c r="J41" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="L41" s="3">
         <v>2683</v>
@@ -2802,7 +2335,7 @@
         <v>37794</v>
       </c>
       <c r="N41" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.45">
@@ -2810,7 +2343,7 @@
         <v>2021</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="C42" s="3">
         <v>902327</v>
@@ -2834,7 +2367,7 @@
         <v>1144</v>
       </c>
       <c r="J42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K42" s="3">
         <v>689987</v>
@@ -2846,7 +2379,7 @@
         <v>55559</v>
       </c>
       <c r="N42" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.45">
@@ -2854,7 +2387,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>21</v>
       </c>
       <c r="C43" s="3">
         <v>170224</v>
@@ -2872,13 +2405,13 @@
         <v>94225</v>
       </c>
       <c r="H43" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="J43" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K43" s="3">
         <v>27461</v>
@@ -2890,7 +2423,7 @@
         <v>43834</v>
       </c>
       <c r="N43" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.45">
@@ -2898,7 +2431,7 @@
         <v>2021</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
       <c r="C44" s="3">
         <v>4733827</v>
@@ -2934,7 +2467,7 @@
         <v>1453062</v>
       </c>
       <c r="N44" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.45">
@@ -2942,7 +2475,7 @@
         <v>2021</v>
       </c>
       <c r="B45" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C45" s="3">
         <v>5888937</v>
@@ -2966,7 +2499,7 @@
         <v>713162</v>
       </c>
       <c r="J45" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K45" s="3">
         <v>2225996</v>
@@ -2978,7 +2511,7 @@
         <v>148294</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.45">
@@ -2986,7 +2519,7 @@
         <v>2021</v>
       </c>
       <c r="B46" t="s">
-        <v>115</v>
+        <v>24</v>
       </c>
       <c r="C46" s="3">
         <v>2225401</v>
@@ -3010,7 +2543,7 @@
         <v>731058</v>
       </c>
       <c r="J46" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K46" s="3">
         <v>8492</v>
@@ -3022,7 +2555,7 @@
         <v>54965</v>
       </c>
       <c r="N46" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.45">
@@ -3030,7 +2563,7 @@
         <v>2021</v>
       </c>
       <c r="B47" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C47" s="3">
         <v>8489538</v>
@@ -3054,7 +2587,7 @@
         <v>57296</v>
       </c>
       <c r="J47" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K47" s="3">
         <v>2677939</v>
@@ -3074,7 +2607,7 @@
         <v>2021</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="C48" s="3">
         <v>8325469</v>
@@ -3098,7 +2631,7 @@
         <v>238930</v>
       </c>
       <c r="J48" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K48" s="3">
         <v>3676706</v>
@@ -3110,7 +2643,7 @@
         <v>11215</v>
       </c>
       <c r="N48" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.45">
@@ -3118,7 +2651,7 @@
         <v>2021</v>
       </c>
       <c r="B49" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="C49" s="3">
         <v>6158271</v>
@@ -3154,7 +2687,7 @@
         <v>229324</v>
       </c>
       <c r="N49" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.45">
@@ -3162,7 +2695,7 @@
         <v>2021</v>
       </c>
       <c r="B50" t="s">
-        <v>158</v>
+        <v>28</v>
       </c>
       <c r="C50" s="3">
         <v>4393519</v>
@@ -3186,7 +2719,7 @@
         <v>292238</v>
       </c>
       <c r="J50" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K50" s="3">
         <v>22778</v>
@@ -3198,7 +2731,7 @@
         <v>36159</v>
       </c>
       <c r="N50" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.45">
@@ -3206,7 +2739,7 @@
         <v>2021</v>
       </c>
       <c r="B51" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="C51" s="3">
         <v>2542146</v>
@@ -3230,7 +2763,7 @@
         <v>236059</v>
       </c>
       <c r="J51" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K51" s="3">
         <v>372760</v>
@@ -3242,7 +2775,7 @@
         <v>25672</v>
       </c>
       <c r="N51" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.45">
@@ -3250,7 +2783,7 @@
         <v>2021</v>
       </c>
       <c r="B52" t="s">
-        <v>178</v>
+        <v>30</v>
       </c>
       <c r="C52" s="3">
         <v>2662500</v>
@@ -3286,7 +2819,7 @@
         <v>390</v>
       </c>
       <c r="N52" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
